--- a/Code/Results/Cases/Case_9_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_51/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.013175560500061</v>
+        <v>1.0124398512254</v>
       </c>
       <c r="D2">
-        <v>1.030467647661778</v>
+        <v>1.029171600432729</v>
       </c>
       <c r="E2">
-        <v>1.017697977289998</v>
+        <v>1.017095466446219</v>
       </c>
       <c r="F2">
-        <v>1.030686750527833</v>
+        <v>1.030330626386114</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048248845967621</v>
+        <v>1.047719247359981</v>
       </c>
       <c r="J2">
-        <v>1.034969209621793</v>
+        <v>1.0342547496504</v>
       </c>
       <c r="K2">
-        <v>1.041518231174641</v>
+        <v>1.040238954583668</v>
       </c>
       <c r="L2">
-        <v>1.028916136695502</v>
+        <v>1.028321663104586</v>
       </c>
       <c r="M2">
-        <v>1.041734504099866</v>
+        <v>1.041382980436274</v>
       </c>
       <c r="N2">
-        <v>1.015169029191139</v>
+        <v>1.016026841017671</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041602450257912</v>
+        <v>1.041324243218328</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040427267639901</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039531466417626</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022638085990089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017147446188205</v>
+        <v>1.016194690144729</v>
       </c>
       <c r="D3">
-        <v>1.033180830956385</v>
+        <v>1.031625785742498</v>
       </c>
       <c r="E3">
-        <v>1.020857141793326</v>
+        <v>1.020061146978609</v>
       </c>
       <c r="F3">
-        <v>1.033525553451955</v>
+        <v>1.033067709373442</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049313004479418</v>
+        <v>1.048647753202996</v>
       </c>
       <c r="J3">
-        <v>1.037181324389636</v>
+        <v>1.036253400595545</v>
       </c>
       <c r="K3">
-        <v>1.043406054884021</v>
+        <v>1.04186938896861</v>
       </c>
       <c r="L3">
-        <v>1.031229929601902</v>
+        <v>1.030443618350184</v>
       </c>
       <c r="M3">
-        <v>1.043746712329201</v>
+        <v>1.043294267990029</v>
       </c>
       <c r="N3">
-        <v>1.015945109514676</v>
+        <v>1.016580264045132</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043194973977093</v>
+        <v>1.042836895862299</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041759459547457</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040681384684952</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022984252627832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019670806479611</v>
+        <v>1.01858187918514</v>
       </c>
       <c r="D4">
-        <v>1.034908502261212</v>
+        <v>1.033190052033374</v>
       </c>
       <c r="E4">
-        <v>1.022869667078531</v>
+        <v>1.021952184891645</v>
       </c>
       <c r="F4">
-        <v>1.035336593927032</v>
+        <v>1.034814974083682</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049981351512848</v>
+        <v>1.04923055319523</v>
       </c>
       <c r="J4">
-        <v>1.038584373067853</v>
+        <v>1.037521913183297</v>
       </c>
       <c r="K4">
-        <v>1.044603105495091</v>
+        <v>1.042903748308348</v>
       </c>
       <c r="L4">
-        <v>1.032699693629</v>
+        <v>1.031792693513499</v>
       </c>
       <c r="M4">
-        <v>1.045026452924335</v>
+        <v>1.04451061446658</v>
       </c>
       <c r="N4">
-        <v>1.016437079459713</v>
+        <v>1.01693145737573</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044207798381946</v>
+        <v>1.043799548800413</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042606765359869</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041413736484185</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023201474775314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020725255866466</v>
+        <v>1.019579644767867</v>
       </c>
       <c r="D5">
-        <v>1.035633799023477</v>
+        <v>1.033847236482525</v>
       </c>
       <c r="E5">
-        <v>1.023712539528142</v>
+        <v>1.022744442782865</v>
       </c>
       <c r="F5">
-        <v>1.036094099259175</v>
+        <v>1.035545940647654</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050260649648799</v>
+        <v>1.049474141925542</v>
       </c>
       <c r="J5">
-        <v>1.039171965669856</v>
+        <v>1.038053370516356</v>
       </c>
       <c r="K5">
-        <v>1.045106057480463</v>
+        <v>1.043338819267396</v>
       </c>
       <c r="L5">
-        <v>1.033315313677981</v>
+        <v>1.032357980093801</v>
       </c>
       <c r="M5">
-        <v>1.045561392121769</v>
+        <v>1.045019147512142</v>
       </c>
       <c r="N5">
-        <v>1.016643681166901</v>
+        <v>1.017079038406738</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044631164604301</v>
+        <v>1.044202016667527</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.04296953460456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04172922159317</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023292915375296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020907118530901</v>
+        <v>1.019751540715444</v>
       </c>
       <c r="D6">
-        <v>1.035761891419527</v>
+        <v>1.033963482410176</v>
       </c>
       <c r="E6">
-        <v>1.02385871671947</v>
+        <v>1.022881688740206</v>
       </c>
       <c r="F6">
-        <v>1.036223574963995</v>
+        <v>1.035670748793187</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050311020536053</v>
+        <v>1.049518227937262</v>
       </c>
       <c r="J6">
-        <v>1.039275557203451</v>
+        <v>1.038147090583653</v>
       </c>
       <c r="K6">
-        <v>1.045196790796908</v>
+        <v>1.043417745544161</v>
       </c>
       <c r="L6">
-        <v>1.033423333872077</v>
+        <v>1.032457118119487</v>
       </c>
       <c r="M6">
-        <v>1.045653516606089</v>
+        <v>1.045106627535306</v>
       </c>
       <c r="N6">
-        <v>1.016680871834394</v>
+        <v>1.017105622158308</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044704074538491</v>
+        <v>1.044271250884013</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043042399426679</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041794609550067</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023310263183159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01969962402786</v>
+        <v>1.018617863847589</v>
       </c>
       <c r="D7">
-        <v>1.034936213882482</v>
+        <v>1.033222690874893</v>
       </c>
       <c r="E7">
-        <v>1.022894681960526</v>
+        <v>1.021983803682488</v>
       </c>
       <c r="F7">
-        <v>1.035353853830427</v>
+        <v>1.03483553121498</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049995219837182</v>
+        <v>1.049247935581051</v>
       </c>
       <c r="J7">
-        <v>1.038606579732285</v>
+        <v>1.037551100937781</v>
       </c>
       <c r="K7">
-        <v>1.044627643616833</v>
+        <v>1.042933151198508</v>
       </c>
       <c r="L7">
-        <v>1.032721511624596</v>
+        <v>1.031821035781445</v>
       </c>
       <c r="M7">
-        <v>1.045040656945519</v>
+        <v>1.044528076999838</v>
       </c>
       <c r="N7">
-        <v>1.016446993476294</v>
+        <v>1.016967373156572</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044219039854836</v>
+        <v>1.043813369161641</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042644150199996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04145656603763</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023210721513504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014546336206049</v>
+        <v>1.01376329161949</v>
       </c>
       <c r="D8">
-        <v>1.031412993717226</v>
+        <v>1.030048914185095</v>
       </c>
       <c r="E8">
-        <v>1.018789726692421</v>
+        <v>1.018145952248847</v>
       </c>
       <c r="F8">
-        <v>1.031660603969311</v>
+        <v>1.031282170864775</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048625488789773</v>
+        <v>1.048063551567786</v>
       </c>
       <c r="J8">
-        <v>1.035740833210064</v>
+        <v>1.034979646111783</v>
       </c>
       <c r="K8">
-        <v>1.042183625655168</v>
+        <v>1.040836674299038</v>
       </c>
       <c r="L8">
-        <v>1.029721054910734</v>
+        <v>1.029085609443765</v>
       </c>
       <c r="M8">
-        <v>1.042428132824812</v>
+        <v>1.042054443041107</v>
       </c>
       <c r="N8">
-        <v>1.015442574848546</v>
+        <v>1.016309660138798</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042151409841227</v>
+        <v>1.041855660047819</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040920595849794</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039979214422797</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022771074313155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005067628896941</v>
+        <v>1.004818548560016</v>
       </c>
       <c r="D9">
-        <v>1.024953264651996</v>
+        <v>1.024218229062819</v>
       </c>
       <c r="E9">
-        <v>1.011281130586494</v>
+        <v>1.011112896247657</v>
       </c>
       <c r="F9">
-        <v>1.024935041023539</v>
+        <v>1.024807174859044</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046036241684024</v>
+        <v>1.04580481508499</v>
       </c>
       <c r="J9">
-        <v>1.030442696563199</v>
+        <v>1.03020229141994</v>
       </c>
       <c r="K9">
-        <v>1.037654061904005</v>
+        <v>1.036930233039768</v>
       </c>
       <c r="L9">
-        <v>1.024193792927597</v>
+        <v>1.024028211243745</v>
       </c>
       <c r="M9">
-        <v>1.037636115874474</v>
+        <v>1.037510197838005</v>
       </c>
       <c r="N9">
-        <v>1.01358012470654</v>
+        <v>1.014994853475216</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038358848419966</v>
+        <v>1.038259192432528</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037714733799386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037213666803874</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02192646412609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9985622417455177</v>
+        <v>0.9987275350348878</v>
       </c>
       <c r="D10">
-        <v>1.020559813863062</v>
+        <v>1.020291294289305</v>
       </c>
       <c r="E10">
-        <v>1.006172734172141</v>
+        <v>1.006373473088495</v>
       </c>
       <c r="F10">
-        <v>1.020531642590927</v>
+        <v>1.020598339498924</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044256536787708</v>
+        <v>1.044274453383252</v>
       </c>
       <c r="J10">
-        <v>1.02683301984188</v>
+        <v>1.026991729796853</v>
       </c>
       <c r="K10">
-        <v>1.034567518512739</v>
+        <v>1.034303599562654</v>
       </c>
       <c r="L10">
-        <v>1.020431425272882</v>
+        <v>1.020628598188547</v>
       </c>
       <c r="M10">
-        <v>1.034539829760279</v>
+        <v>1.034605384334327</v>
       </c>
       <c r="N10">
-        <v>1.012320880520234</v>
+        <v>1.014231708477074</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035959930093896</v>
+        <v>1.036011809217568</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035549153307192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03537495608811</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021358313545935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9963668221433705</v>
+        <v>0.9966970172136489</v>
       </c>
       <c r="D11">
-        <v>1.01919144750032</v>
+        <v>1.01909383482566</v>
       </c>
       <c r="E11">
-        <v>1.004552828744567</v>
+        <v>1.004896515443664</v>
       </c>
       <c r="F11">
-        <v>1.02039037418394</v>
+        <v>1.020533190020746</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043920389731417</v>
+        <v>1.044027677521411</v>
       </c>
       <c r="J11">
-        <v>1.025891530563127</v>
+        <v>1.026207852634256</v>
       </c>
       <c r="K11">
-        <v>1.033760294790198</v>
+        <v>1.033664434203048</v>
       </c>
       <c r="L11">
-        <v>1.019389393115757</v>
+        <v>1.019726677674685</v>
       </c>
       <c r="M11">
-        <v>1.034937736989059</v>
+        <v>1.035077997969271</v>
       </c>
       <c r="N11">
-        <v>1.012079208376248</v>
+        <v>1.014307560219368</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036711928090367</v>
+        <v>1.036822872856907</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035011251054222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034959090997596</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021281894342946</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9957714142828132</v>
+        <v>0.9961369664510686</v>
       </c>
       <c r="D12">
-        <v>1.018863469735315</v>
+        <v>1.018802121456537</v>
       </c>
       <c r="E12">
-        <v>1.004160021098474</v>
+        <v>1.004530689374067</v>
       </c>
       <c r="F12">
-        <v>1.020948526568596</v>
+        <v>1.021106666672026</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043946413055876</v>
+        <v>1.044068335144786</v>
       </c>
       <c r="J12">
-        <v>1.025755819919875</v>
+        <v>1.026105721411447</v>
       </c>
       <c r="K12">
-        <v>1.033637984050834</v>
+        <v>1.033577755232631</v>
       </c>
       <c r="L12">
-        <v>1.019207953304689</v>
+        <v>1.019571600261026</v>
       </c>
       <c r="M12">
-        <v>1.035685097596257</v>
+        <v>1.035840368133395</v>
       </c>
       <c r="N12">
-        <v>1.012100768379395</v>
+        <v>1.014428275230131</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037629860189327</v>
+        <v>1.03775263566246</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034924773416323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034897807444444</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021306478121494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9963855937467937</v>
+        <v>0.9966735416889914</v>
       </c>
       <c r="D13">
-        <v>1.0193347082395</v>
+        <v>1.019196104521936</v>
       </c>
       <c r="E13">
-        <v>1.00469973348857</v>
+        <v>1.004995890105545</v>
       </c>
       <c r="F13">
-        <v>1.022109941331152</v>
+        <v>1.022230785229668</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04426905352092</v>
+        <v>1.044341218186255</v>
       </c>
       <c r="J13">
-        <v>1.026250529602803</v>
+        <v>1.026526214758565</v>
       </c>
       <c r="K13">
-        <v>1.03405780639497</v>
+        <v>1.033921720629498</v>
       </c>
       <c r="L13">
-        <v>1.019693711204732</v>
+        <v>1.019984284061355</v>
       </c>
       <c r="M13">
-        <v>1.036782809893406</v>
+        <v>1.036901474664511</v>
       </c>
       <c r="N13">
-        <v>1.012335848531277</v>
+        <v>1.014560799973425</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038774640216115</v>
+        <v>1.038868447204839</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035219109282379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035138262820635</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021415476747094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9973591435961081</v>
+        <v>0.9975430181863963</v>
       </c>
       <c r="D14">
-        <v>1.02002452486291</v>
+        <v>1.019781818301216</v>
       </c>
       <c r="E14">
-        <v>1.005496238225315</v>
+        <v>1.005695877182869</v>
       </c>
       <c r="F14">
-        <v>1.023182742521427</v>
+        <v>1.023254547348037</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044626178643741</v>
+        <v>1.044635518701621</v>
       </c>
       <c r="J14">
-        <v>1.026878011193673</v>
+        <v>1.02705416960633</v>
       </c>
       <c r="K14">
-        <v>1.03459492381081</v>
+        <v>1.034356570922333</v>
       </c>
       <c r="L14">
-        <v>1.02033207645822</v>
+        <v>1.020528000112857</v>
       </c>
       <c r="M14">
-        <v>1.037696733715736</v>
+        <v>1.037767261317003</v>
       </c>
       <c r="N14">
-        <v>1.012595751336169</v>
+        <v>1.014659666551272</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039670435954625</v>
+        <v>1.039726181985972</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035600292894828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035447272369086</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021530110395257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9978703291384718</v>
+        <v>0.998004395876958</v>
       </c>
       <c r="D15">
-        <v>1.02037790171299</v>
+        <v>1.020084973766099</v>
       </c>
       <c r="E15">
-        <v>1.005903545417556</v>
+        <v>1.006057870909418</v>
       </c>
       <c r="F15">
-        <v>1.023609277764515</v>
+        <v>1.023657835258897</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044786419513223</v>
+        <v>1.044766588912253</v>
       </c>
       <c r="J15">
-        <v>1.02718034712204</v>
+        <v>1.027308837639356</v>
       </c>
       <c r="K15">
-        <v>1.034855635673235</v>
+        <v>1.034567922050792</v>
       </c>
       <c r="L15">
-        <v>1.020643667991515</v>
+        <v>1.02079514399562</v>
       </c>
       <c r="M15">
-        <v>1.038029747749413</v>
+        <v>1.038077448320112</v>
       </c>
       <c r="N15">
-        <v>1.012710563931563</v>
+        <v>1.01469323451429</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039971187351464</v>
+        <v>1.040008889579241</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03579049228549</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035603139815828</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021580250091006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000500540052403</v>
+        <v>1.000411430010262</v>
       </c>
       <c r="D16">
-        <v>1.022143368157058</v>
+        <v>1.021619939761977</v>
       </c>
       <c r="E16">
-        <v>1.007951201801993</v>
+        <v>1.007906877065566</v>
       </c>
       <c r="F16">
-        <v>1.025295226736436</v>
+        <v>1.025240477690261</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045489079300077</v>
+        <v>1.045341933330633</v>
       </c>
       <c r="J16">
-        <v>1.02861759111801</v>
+        <v>1.028532000698395</v>
       </c>
       <c r="K16">
-        <v>1.036088466092819</v>
+        <v>1.035573946660802</v>
       </c>
       <c r="L16">
-        <v>1.022142103266189</v>
+        <v>1.022098560278626</v>
       </c>
       <c r="M16">
-        <v>1.039186926837808</v>
+        <v>1.039133101718726</v>
       </c>
       <c r="N16">
-        <v>1.013200060530732</v>
+        <v>1.014811625567162</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040847104761313</v>
+        <v>1.040804560514547</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036665308186271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036317892532724</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021789452417562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002014590377367</v>
+        <v>1.001819046437213</v>
       </c>
       <c r="D17">
-        <v>1.023142285422983</v>
+        <v>1.022504126493566</v>
       </c>
       <c r="E17">
-        <v>1.009111760431742</v>
+        <v>1.008974610222204</v>
       </c>
       <c r="F17">
-        <v>1.026025916070104</v>
+        <v>1.025922104302154</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045841964142362</v>
+        <v>1.045634784445262</v>
       </c>
       <c r="J17">
-        <v>1.029395570377228</v>
+        <v>1.029207500401683</v>
       </c>
       <c r="K17">
-        <v>1.03675635924612</v>
+        <v>1.036128756042287</v>
       </c>
       <c r="L17">
-        <v>1.022961891643904</v>
+        <v>1.022827090795933</v>
       </c>
       <c r="M17">
-        <v>1.039592502563937</v>
+        <v>1.039490394400731</v>
       </c>
       <c r="N17">
-        <v>1.013440765994282</v>
+        <v>1.014881574052462</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.04103865232362</v>
+        <v>1.040957936345185</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.037140116203726</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036712992465464</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021892422037728</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002679062495663</v>
+        <v>1.002456821165688</v>
       </c>
       <c r="D18">
-        <v>1.023541292866037</v>
+        <v>1.022870082400523</v>
       </c>
       <c r="E18">
-        <v>1.009585242835498</v>
+        <v>1.009427793665229</v>
       </c>
       <c r="F18">
-        <v>1.025888811983676</v>
+        <v>1.025772938101227</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045900768119788</v>
+        <v>1.045680723963913</v>
       </c>
       <c r="J18">
-        <v>1.029641238747891</v>
+        <v>1.029427332987067</v>
       </c>
       <c r="K18">
-        <v>1.036965679454567</v>
+        <v>1.036305389627188</v>
       </c>
       <c r="L18">
-        <v>1.023240548552139</v>
+        <v>1.023085751540576</v>
       </c>
       <c r="M18">
-        <v>1.039275148551011</v>
+        <v>1.039161147577888</v>
       </c>
       <c r="N18">
-        <v>1.013473799506754</v>
+        <v>1.014865388131072</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040550049061403</v>
+        <v>1.040459913107926</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.037276489817608</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036825119463864</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021900293441068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002575023051494</v>
+        <v>1.002388927117416</v>
       </c>
       <c r="D19">
-        <v>1.023407568785462</v>
+        <v>1.0227705089509</v>
       </c>
       <c r="E19">
-        <v>1.009439384697791</v>
+        <v>1.009318441287691</v>
       </c>
       <c r="F19">
-        <v>1.024917084145538</v>
+        <v>1.024818370258379</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04569754543444</v>
+        <v>1.045502292093096</v>
       </c>
       <c r="J19">
-        <v>1.029407040273262</v>
+        <v>1.029227885093122</v>
       </c>
       <c r="K19">
-        <v>1.036771684764817</v>
+        <v>1.036144937675736</v>
       </c>
       <c r="L19">
-        <v>1.02303346698051</v>
+        <v>1.02291455055871</v>
       </c>
       <c r="M19">
-        <v>1.038256829714185</v>
+        <v>1.038159706700647</v>
       </c>
       <c r="N19">
-        <v>1.013327460804302</v>
+        <v>1.014755757174926</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039419133321903</v>
+        <v>1.039342316974838</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037145717297568</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036718688343182</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021826613125983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.000290317946748</v>
+        <v>1.000316139504422</v>
       </c>
       <c r="D20">
-        <v>1.021745449621234</v>
+        <v>1.021330640480203</v>
       </c>
       <c r="E20">
-        <v>1.00753383325888</v>
+        <v>1.007608958844779</v>
       </c>
       <c r="F20">
-        <v>1.021698336347745</v>
+        <v>1.021699476099488</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044749508356959</v>
+        <v>1.044685301860284</v>
       </c>
       <c r="J20">
-        <v>1.027810052909436</v>
+        <v>1.027834879941122</v>
       </c>
       <c r="K20">
-        <v>1.03541641289892</v>
+        <v>1.035008506894252</v>
       </c>
       <c r="L20">
-        <v>1.021445490360171</v>
+        <v>1.021519320503527</v>
       </c>
       <c r="M20">
-        <v>1.035370083307793</v>
+        <v>1.035371204099802</v>
       </c>
       <c r="N20">
-        <v>1.012668659353205</v>
+        <v>1.014367615641409</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.03660640914332</v>
+        <v>1.036607296135675</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036191411850342</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035919505213106</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021514844119962</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9952665872773588</v>
+        <v>0.9957541839582419</v>
       </c>
       <c r="D21">
-        <v>1.01833813002424</v>
+        <v>1.018394343939446</v>
       </c>
       <c r="E21">
-        <v>1.003582358755348</v>
+        <v>1.00407555784694</v>
       </c>
       <c r="F21">
-        <v>1.018053238874044</v>
+        <v>1.018272068522341</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043307702480573</v>
+        <v>1.043513118276013</v>
       </c>
       <c r="J21">
-        <v>1.024963552317121</v>
+        <v>1.025430499853533</v>
       </c>
       <c r="K21">
-        <v>1.032980214882647</v>
+        <v>1.033035413165791</v>
       </c>
       <c r="L21">
-        <v>1.018496178609632</v>
+        <v>1.01898012673597</v>
       </c>
       <c r="M21">
-        <v>1.032700473180667</v>
+        <v>1.032915347118181</v>
       </c>
       <c r="N21">
-        <v>1.011659078550319</v>
+        <v>1.014124399171008</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.034452595785419</v>
+        <v>1.034622655522226</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.0344721640088</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034528022530106</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021086587044422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9920679398520059</v>
+        <v>0.9928501847690165</v>
       </c>
       <c r="D22">
-        <v>1.016173233661387</v>
+        <v>1.016529770122966</v>
       </c>
       <c r="E22">
-        <v>1.001077323910092</v>
+        <v>1.001837588801001</v>
       </c>
       <c r="F22">
-        <v>1.015831274976616</v>
+        <v>1.016189614777855</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042392346597957</v>
+        <v>1.042770074054964</v>
       </c>
       <c r="J22">
-        <v>1.023160270486283</v>
+        <v>1.02390742990057</v>
       </c>
       <c r="K22">
-        <v>1.031430963025926</v>
+        <v>1.031780730449414</v>
       </c>
       <c r="L22">
-        <v>1.016627468971531</v>
+        <v>1.017372730382241</v>
       </c>
       <c r="M22">
-        <v>1.031095502450376</v>
+        <v>1.031447033001883</v>
       </c>
       <c r="N22">
-        <v>1.011021468795964</v>
+        <v>1.013966468930495</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.033182357140824</v>
+        <v>1.033460572810351</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033363264617198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033626103338693</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020813748099156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9937554368402959</v>
+        <v>0.9943668878170354</v>
       </c>
       <c r="D23">
-        <v>1.017307617831837</v>
+        <v>1.017493526643265</v>
       </c>
       <c r="E23">
-        <v>1.00239581010364</v>
+        <v>1.003000752122985</v>
       </c>
       <c r="F23">
-        <v>1.017005511582794</v>
+        <v>1.017282868607664</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042870220639585</v>
+        <v>1.043148702422493</v>
       </c>
       <c r="J23">
-        <v>1.024105998900398</v>
+        <v>1.024690840467027</v>
       </c>
       <c r="K23">
-        <v>1.03223877373963</v>
+        <v>1.032421243681736</v>
       </c>
       <c r="L23">
-        <v>1.017608239583065</v>
+        <v>1.018201557793261</v>
       </c>
       <c r="M23">
-        <v>1.031942259231494</v>
+        <v>1.032214482440633</v>
       </c>
       <c r="N23">
-        <v>1.011353476054115</v>
+        <v>1.014000986592087</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.033852514935255</v>
+        <v>1.034067963331537</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.033924778454642</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034068388063954</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020949321096602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000283807638466</v>
+        <v>1.000314346030123</v>
       </c>
       <c r="D24">
-        <v>1.021720021554044</v>
+        <v>1.0213094055268</v>
       </c>
       <c r="E24">
-        <v>1.007516341043819</v>
+        <v>1.00759634970686</v>
       </c>
       <c r="F24">
-        <v>1.021565507881863</v>
+        <v>1.021568948349672</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044712947327826</v>
+        <v>1.044652102266846</v>
       </c>
       <c r="J24">
-        <v>1.027770936994505</v>
+        <v>1.027800300827824</v>
       </c>
       <c r="K24">
-        <v>1.035376151495934</v>
+        <v>1.034972360470014</v>
       </c>
       <c r="L24">
-        <v>1.021412734634098</v>
+        <v>1.021491365374112</v>
       </c>
       <c r="M24">
-        <v>1.035224205223703</v>
+        <v>1.035227588513795</v>
       </c>
       <c r="N24">
-        <v>1.012643760830289</v>
+        <v>1.014346415158921</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.036449974607893</v>
+        <v>1.03645265227031</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036135551777589</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035863883561377</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02149852710257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007588998123299</v>
+        <v>1.007183340241227</v>
       </c>
       <c r="D25">
-        <v>1.026679757801304</v>
+        <v>1.02576663669189</v>
       </c>
       <c r="E25">
-        <v>1.013276459984504</v>
+        <v>1.012968302855565</v>
       </c>
       <c r="F25">
-        <v>1.026711082641226</v>
+        <v>1.026509710676694</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046741650067783</v>
+        <v>1.046414779914085</v>
       </c>
       <c r="J25">
-        <v>1.031863633837022</v>
+        <v>1.031471351285763</v>
       </c>
       <c r="K25">
-        <v>1.038877556015766</v>
+        <v>1.037977705950444</v>
       </c>
       <c r="L25">
-        <v>1.025672113611636</v>
+        <v>1.02536858377442</v>
       </c>
       <c r="M25">
-        <v>1.038908426120307</v>
+        <v>1.038709978039554</v>
       </c>
       <c r="N25">
-        <v>1.014083569785046</v>
+        <v>1.015315767641159</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039365798968492</v>
+        <v>1.039208740353301</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03860835793605</v>
+        <v>1.037985636893649</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02215737033794</v>
       </c>
     </row>
   </sheetData>
